--- a/dataDictionary/Panels_applied.xlsx
+++ b/dataDictionary/Panels_applied.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B4AE7B-1F60-4340-AD34-1EF75DE735A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -56,9 +57,6 @@
     <t>Participant Identifier (supplied by Genomics England)</t>
   </si>
   <si>
-    <t>rare_diseases_family_id</t>
-  </si>
-  <si>
     <t>gmcFamilyId, xs:string</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>A unique identifier for the interpretation request. The Interpretation Request contains all of the information needed to display and clinically annotate a case. If new data are added (such as an additional family member or gene panel), the case will be re-interpreted and the interpretation request id will be updated.</t>
   </si>
   <si>
-    <t>sample_id</t>
-  </si>
-  <si>
     <t>Concatination of Plate ID and Well ID - unique identifier for a proccessed well</t>
   </si>
   <si>
@@ -111,12 +106,18 @@
   </si>
   <si>
     <t xml:space="preserve">A unique hash of the panel name and panel version. </t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>platekey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -341,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -542,20 +543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -583,116 +584,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="217" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -701,6 +702,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -709,7 +716,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4BFB859250D564387E302C619C2B830" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32decd7787f52d120c7d0d72eb096c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6c6d246b-e97a-4623-bd89-8186b03da3b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed6969e65bb20c7f0222e4dea77edbb1" ns3:_="">
     <xsd:import namespace="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
@@ -873,13 +880,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6D7090-6513-464E-9D84-E8FDAB5BCE18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1D0887-4C97-4A1E-9014-093164807B6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -887,7 +904,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9147768-B24C-454E-94AD-4D4D20885127}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -903,20 +920,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6D7090-6513-464E-9D84-E8FDAB5BCE18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>